--- a/jdocs/Stats/Lab 5.xlsx
+++ b/jdocs/Stats/Lab 5.xlsx
@@ -4,19 +4,27 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="15480" windowHeight="9210" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="15480" windowHeight="9210"/>
   </bookViews>
   <sheets>
-    <sheet name="Case 1" sheetId="5" r:id="rId1"/>
-    <sheet name="Case 2" sheetId="4" r:id="rId2"/>
-    <sheet name="Case 3" sheetId="6" r:id="rId3"/>
+    <sheet name="Intro" sheetId="7" r:id="rId1"/>
+    <sheet name="Case 1" sheetId="5" r:id="rId2"/>
+    <sheet name="Case 2" sheetId="4" r:id="rId3"/>
+    <sheet name="Case 3" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Nr. of Televisions</t>
+  </si>
+  <si>
+    <t>Nr. of Housholds</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -51,7 +59,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -59,14 +67,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -82,6 +100,151 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>157843</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>391886</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="136071" y="5872843"/>
+          <a:ext cx="2884715" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Define X as the number of TVs in a randomly drawn household.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Calculate the probability that P(X=3).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" marR="0" indent="-171450" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Calculate the probability that a randomly drawn</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> houshold has at least 2, but not more than 4 TVs.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -274,7 +437,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1058,7 +1221,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1675,6 +1838,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A27:B33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>32379</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>37961</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>19387</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>7714</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
+        <v>5</v>
+      </c>
+      <c r="B33" s="3">
+        <v>2842</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1690,7 +1929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1709,11 +1948,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
